--- a/cmake-build-debug/Graphed Data/quickSortFile.xlsx
+++ b/cmake-build-debug/Graphed Data/quickSortFile.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amccm\CLionProjects\Project_4\cmake-build-debug\Graphed Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8CB981-1C52-4090-A976-1387240E8E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32C23B8E-FEDB-4FF2-8A3E-19C5A636BB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="2205" windowWidth="21540" windowHeight="11340"/>
   </bookViews>
   <sheets>
     <sheet name="quickSortFile" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -607,13 +607,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Quick</a:t>
+              <a:t>Quick Sort</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Sort</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -649,9 +644,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -668,15 +662,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>quickSortFile!$A$2:$A$11</c:f>
@@ -755,9 +751,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-14D0-4887-94E5-293164BDA64A}"/>
+              <c16:uniqueId val="{00000000-3B79-41EA-BA9D-CE8586B6C427}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -776,15 +773,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>quickSortFile!$A$2:$A$11</c:f>
@@ -863,9 +862,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-14D0-4887-94E5-293164BDA64A}"/>
+              <c16:uniqueId val="{00000001-3B79-41EA-BA9D-CE8586B6C427}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -877,13 +877,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="223311407"/>
-        <c:axId val="223310159"/>
-      </c:barChart>
+        <c:smooth val="0"/>
+        <c:axId val="128636992"/>
+        <c:axId val="128639488"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="223311407"/>
+        <c:axId val="128636992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -981,7 +980,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223310159"/>
+        <c:crossAx val="128639488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -989,7 +988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223310159"/>
+        <c:axId val="128639488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1095,7 +1094,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223311407"/>
+        <c:crossAx val="128636992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1216,7 +1215,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1324,6 +1323,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1334,6 +1338,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1365,6 +1374,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1723,13 +1735,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
@@ -1738,7 +1750,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A53153B4-7733-43CE-A1EA-324AEEE4BDD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A47B0F3F-5660-429B-99D1-3151AE2E2333}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2055,12 +2067,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
